--- a/report_co_so/HỆ THỐNG 2024-06-01 - 2024-06-30.xlsx
+++ b/report_co_so/HỆ THỐNG 2024-06-01 - 2024-06-30.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,10 +455,20 @@
       </c>
       <c r="G1" t="inlineStr">
         <is>
+          <t>Công phụ phẫu 1</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
           <t>Số lần phụ phẫu 2</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Công phụ phẫu 2</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
         <is>
           <t>Doanh số thu nợ</t>
         </is>
@@ -491,6 +501,12 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -505,7 +521,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>76600000</v>
+        <v>74300000</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -517,6 +533,12 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
         <v>2000000</v>
       </c>
     </row>
@@ -542,9 +564,15 @@
         <v>14</v>
       </c>
       <c r="G4" t="n">
+        <v>900000</v>
+      </c>
+      <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
         <v>1000000</v>
       </c>
     </row>
@@ -570,9 +598,15 @@
         <v>19</v>
       </c>
       <c r="G5" t="n">
+        <v>1900000</v>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J5" t="n">
         <v>0</v>
       </c>
     </row>
@@ -601,6 +635,12 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
         <v>29200000</v>
       </c>
     </row>
@@ -631,6 +671,12 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -657,6 +703,12 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
         <v>12000000</v>
       </c>
     </row>
@@ -685,6 +737,12 @@
         <v>0</v>
       </c>
       <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
         <v>22000000</v>
       </c>
     </row>
@@ -710,9 +768,15 @@
         <v>13</v>
       </c>
       <c r="G10" t="n">
+        <v>1350000</v>
+      </c>
+      <c r="H10" t="n">
         <v>1</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,9 +802,15 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
         <v>1</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
+        <v>50000</v>
+      </c>
+      <c r="J11" t="n">
         <v>15700000</v>
       </c>
     </row>
@@ -769,6 +839,12 @@
         <v>0</v>
       </c>
       <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
         <v>3000000</v>
       </c>
     </row>
@@ -797,6 +873,12 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
         <v>59000000</v>
       </c>
     </row>
@@ -822,9 +904,15 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>50000</v>
       </c>
       <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -850,9 +938,15 @@
         <v>1</v>
       </c>
       <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
         <v>2</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
+        <v>100000</v>
+      </c>
+      <c r="J15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -878,9 +972,15 @@
         <v>12</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>550000</v>
       </c>
       <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -897,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>33800000</v>
+        <v>36100000</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -909,6 +1009,12 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -938,6 +1044,46 @@
       </c>
       <c r="H18" t="n">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Tổng</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>1043200000</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0</v>
+      </c>
+      <c r="D19" t="n">
+        <v>868200000</v>
+      </c>
+      <c r="E19" t="n">
+        <v>324000000</v>
+      </c>
+      <c r="F19" t="n">
+        <v>61</v>
+      </c>
+      <c r="G19" t="n">
+        <v>4750000</v>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
+      </c>
+      <c r="I19" t="n">
+        <v>250000</v>
+      </c>
+      <c r="J19" t="n">
+        <v>143900000</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1134,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>24733000</v>
+        <v>29432000</v>
       </c>
     </row>
     <row r="4">
@@ -1058,7 +1204,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>45242000</v>
+        <v>54242000</v>
       </c>
     </row>
     <row r="11">
@@ -1078,7 +1224,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>317528000</v>
+        <v>331227000</v>
       </c>
     </row>
   </sheetData>
